--- a/docs/Функциональная схема 2.xlsx
+++ b/docs/Функциональная схема 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\!Diplom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Универ\5 курс\Курсовая-Дипломная\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -390,57 +390,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>569925</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133501</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Прямая со стрелкой 26"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="22" idx="3"/>
-          <a:endCxn id="25" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6034894" y="1657501"/>
-          <a:ext cx="644512" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>365925</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -1226,14 +1175,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>113457</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>85967</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>119585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>509136</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>77684</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>111302</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1242,8 +1191,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6185645" y="7134467"/>
-          <a:ext cx="1610116" cy="753717"/>
+          <a:off x="6164633" y="7549085"/>
+          <a:ext cx="1605915" cy="753717"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst/>
@@ -1275,112 +1224,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>509136</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>5912</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>81826</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="146" name="Соединительная линия уступом 145"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="84" idx="3"/>
-          <a:endCxn id="136" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7795761" y="4572001"/>
-          <a:ext cx="1925651" cy="2939325"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -11871"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>113456</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>81825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="158" name="Соединительная линия уступом 157"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="1"/>
-          <a:endCxn id="136" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="4412455" y="2743200"/>
-          <a:ext cx="1773189" cy="4768125"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -12892"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1671,6 +1514,319 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3655</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>75010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409534</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>151210</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Прямоугольник 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6683061" y="265510"/>
+          <a:ext cx="1620317" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Push receiver</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>569925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3655</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Прямая со стрелкой 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="31" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6034894" y="589360"/>
+          <a:ext cx="648167" cy="1341"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>569925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133501</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Прямая со стрелкой 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="3"/>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6015984" y="1657501"/>
+          <a:ext cx="640310" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>113457</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>115443</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Соединительная линия уступом 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+          <a:endCxn id="136" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="4397749" y="2743200"/>
+          <a:ext cx="1766884" cy="5182743"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -35769"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>162583</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>184082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>311298</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>119585</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Соединительная линия уступом 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="136" idx="1"/>
+          <a:endCxn id="43" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3810248" y="4391741"/>
+          <a:ext cx="3745503" cy="2569185"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11568"/>
+            <a:gd name="adj2" fmla="val 108898"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>509136</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>5912</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>115444</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Соединительная линия уступом 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="136" idx="4"/>
+          <a:endCxn id="84" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7770548" y="4572001"/>
+          <a:ext cx="1917246" cy="3353943"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 111923"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1941,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G64:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
